--- a/Cascade_table.xlsx
+++ b/Cascade_table.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\IX\COMPUTER VISION\Proyecto2-VC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ealda\OneDrive\Documents\GitHub\Proyecto2-VC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F923FFD-4133-40CF-8973-B8379CCC2228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836CF139-5E5E-4993-A5A4-4F5145DEEE8F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A9814139-DB3D-4208-92ED-99FD2206EBAA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A9814139-DB3D-4208-92ED-99FD2206EBAA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cascade" sheetId="1" r:id="rId1"/>
+    <sheet name="HOG" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,12 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>TP</t>
   </si>
@@ -60,7 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,8 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,13 +424,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AA2174-ED6D-456D-99B9-00C70734BC67}">
   <dimension ref="B2:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -453,7 +450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7">
       <c r="B3">
         <v>2</v>
       </c>
@@ -476,7 +473,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7">
       <c r="B4">
         <v>0</v>
       </c>
@@ -499,7 +496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7">
       <c r="B5">
         <v>1</v>
       </c>
@@ -522,7 +519,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7">
       <c r="B6">
         <v>0</v>
       </c>
@@ -545,7 +542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7">
       <c r="B7">
         <v>1</v>
       </c>
@@ -568,7 +565,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7">
       <c r="B8">
         <v>0</v>
       </c>
@@ -591,7 +588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7">
       <c r="B9">
         <v>1</v>
       </c>
@@ -614,7 +611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7">
       <c r="B10">
         <v>1</v>
       </c>
@@ -637,7 +634,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7">
       <c r="B11">
         <v>1</v>
       </c>
@@ -660,7 +657,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7">
       <c r="B12">
         <v>0</v>
       </c>
@@ -683,7 +680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7">
       <c r="B13">
         <v>1</v>
       </c>
@@ -706,7 +703,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7">
       <c r="B14">
         <v>1</v>
       </c>
@@ -729,7 +726,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7">
       <c r="B15">
         <v>1</v>
       </c>
@@ -752,7 +749,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7">
       <c r="B16">
         <v>1</v>
       </c>
@@ -775,7 +772,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7">
       <c r="B17">
         <v>3</v>
       </c>
@@ -798,7 +795,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7">
       <c r="B18">
         <v>1</v>
       </c>
@@ -821,7 +818,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7">
       <c r="B19">
         <v>0</v>
       </c>
@@ -843,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20">
         <v>1</v>
       </c>
@@ -866,7 +863,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21">
         <v>0</v>
       </c>
@@ -889,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7">
       <c r="B22">
         <v>0</v>
       </c>
@@ -912,7 +909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23">
         <v>1</v>
       </c>
@@ -935,7 +932,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7">
       <c r="B24">
         <v>0</v>
       </c>
@@ -958,7 +955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7">
       <c r="B25">
         <v>1</v>
       </c>
@@ -981,7 +978,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7">
       <c r="B26">
         <v>0</v>
       </c>
@@ -1004,7 +1001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7">
       <c r="B27">
         <v>0</v>
       </c>
@@ -1027,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7">
       <c r="B28">
         <v>2</v>
       </c>
@@ -1050,7 +1047,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7">
       <c r="B29">
         <v>1</v>
       </c>
@@ -1073,7 +1070,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7">
       <c r="B30">
         <v>0</v>
       </c>
@@ -1095,7 +1092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7">
       <c r="B31">
         <v>1</v>
       </c>
@@ -1118,7 +1115,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7">
       <c r="B32">
         <v>0</v>
       </c>
@@ -1141,7 +1138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7">
       <c r="B33">
         <v>0</v>
       </c>
@@ -1164,7 +1161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7">
       <c r="B34">
         <v>2</v>
       </c>
@@ -1187,7 +1184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7">
       <c r="B35">
         <v>0</v>
       </c>
@@ -1209,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7">
       <c r="B36">
         <v>0</v>
       </c>
@@ -1231,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7">
       <c r="B37">
         <v>1</v>
       </c>
@@ -1254,7 +1251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7">
       <c r="B38">
         <v>0</v>
       </c>
@@ -1276,7 +1273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7">
       <c r="B39">
         <v>1</v>
       </c>
@@ -1299,7 +1296,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7">
       <c r="B40">
         <v>0</v>
       </c>
@@ -1321,7 +1318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7">
       <c r="B41">
         <v>0</v>
       </c>
@@ -1343,7 +1340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7">
       <c r="B42">
         <v>1</v>
       </c>
@@ -1366,7 +1363,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7">
       <c r="B43">
         <v>1</v>
       </c>
@@ -1389,7 +1386,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7">
       <c r="B44">
         <v>2</v>
       </c>
@@ -1412,7 +1409,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7">
       <c r="B45">
         <v>0</v>
       </c>
@@ -1434,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7">
       <c r="B46">
         <v>1</v>
       </c>
@@ -1457,7 +1454,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7">
       <c r="B47">
         <v>1</v>
       </c>
@@ -1480,7 +1477,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7">
       <c r="B48">
         <v>1</v>
       </c>
@@ -1503,7 +1500,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7">
       <c r="B49">
         <v>1</v>
       </c>
@@ -1526,7 +1523,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7">
       <c r="B50">
         <v>0</v>
       </c>
@@ -1548,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7">
       <c r="B51">
         <v>1</v>
       </c>
@@ -1571,7 +1568,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7">
       <c r="B52">
         <v>0</v>
       </c>
@@ -1594,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7">
       <c r="B53">
         <v>0</v>
       </c>
@@ -1617,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7">
       <c r="E54">
         <f>AVERAGE(E3:E53)</f>
         <v>0.36437908496732024</v>
@@ -1629,6 +1626,1227 @@
       <c r="G54">
         <f t="shared" si="3"/>
         <v>0.25577342047930285</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD57501-39D2-4E71-AB9C-0FC2F6BE6F43}">
+  <dimension ref="C3:I55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="3" spans="3:9">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <f>C4/(C4+E4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="1">
+        <f>C4/(C4+D4)</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <f>C4/(C4+D4+E4)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F54" si="0">C5/(C5+E5)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:G54" si="1">C5/(C5+D5)</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:H54" si="2">C5/(C5+D5+E5)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9">
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9">
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="3:9">
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="3:9">
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9">
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9">
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9">
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9">
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <f>C20/(C20+E20)</f>
+        <v>0.75</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8">
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8">
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8">
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8">
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8">
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8">
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8">
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="1"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8">
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="1"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="2"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8">
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>9</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="1"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="2"/>
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8">
+      <c r="C31" s="1">
+        <v>4</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8">
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8">
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8">
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8">
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8">
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8">
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>4</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8">
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8">
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8">
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8">
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8">
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8">
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8">
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>3</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8">
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8">
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8">
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8">
+      <c r="C48" s="1">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8">
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8">
+      <c r="C50" s="1">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8">
+      <c r="C51" s="1">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <f>C51/(C51+E51)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8">
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8">
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2</v>
+      </c>
+      <c r="E53" s="1">
+        <v>5</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8">
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8">
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1">
+        <f>AVERAGE(F4:F54)</f>
+        <v>0.55718954248366015</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" ref="G55:H55" si="3">AVERAGE(G4:G54)</f>
+        <v>0.61035777947542658</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="3"/>
+        <v>0.46297215856039392</v>
       </c>
     </row>
   </sheetData>

--- a/Cascade_table.xlsx
+++ b/Cascade_table.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ealda\OneDrive\Documents\GitHub\Proyecto2-VC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lp109\OneDrive\Documentos\0lps\01 U\0LaU\0000Noveno semestre\Visión por computadora\Proyecto2-VC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836CF139-5E5E-4993-A5A4-4F5145DEEE8F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5AF2B7-6046-42F1-821B-C0C974AF4CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A9814139-DB3D-4208-92ED-99FD2206EBAA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A9814139-DB3D-4208-92ED-99FD2206EBAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Cascade" sheetId="1" r:id="rId1"/>
     <sheet name="HOG" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,7 +25,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>TP</t>
   </si>
@@ -51,13 +57,60 @@
   <si>
     <t>JACCARD</t>
   </si>
+  <si>
+    <t>Tabla X: Métricas de rendimiento para detección de personas en cascade hass</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>True Positive (TP)</t>
+  </si>
+  <si>
+    <t>False Positive (FP)</t>
+  </si>
+  <si>
+    <t>False Negative (FN)</t>
+  </si>
+  <si>
+    <t>Precisión</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Jaccard</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Tabla X: Métricas de rendimiento para detección de personas en HOG</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -73,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -81,13 +134,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,15 +544,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AA2174-ED6D-456D-99B9-00C70734BC67}">
-  <dimension ref="B2:G54"/>
+  <dimension ref="B2:Q55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E3:E4"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:Q55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="18.77734375" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -449,8 +576,17 @@
       <c r="G2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:7">
+      <c r="K2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="2:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2</v>
       </c>
@@ -472,8 +608,29 @@
         <f>B3/(B3+C3+D3)</f>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="4" spans="2:7">
+      <c r="K3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>0</v>
       </c>
@@ -495,8 +652,32 @@
         <f t="shared" ref="G4:G53" si="2">B4/(B4+C4+D4)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:7">
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>2</v>
+      </c>
+      <c r="M4" s="3">
+        <v>6</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <f>L4/(L4+N4)</f>
+        <v>1</v>
+      </c>
+      <c r="P4" s="3">
+        <f>L4/(L4+M4)</f>
+        <v>0.25</v>
+      </c>
+      <c r="Q4" s="3">
+        <f>L4/(L4+M4+N4)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -518,8 +699,32 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="2:7">
+      <c r="K5" s="3">
+        <v>2</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>4</v>
+      </c>
+      <c r="N5" s="3">
+        <v>2</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" ref="O5:O54" si="3">L5/(L5+N5)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" ref="P5:P54" si="4">L5/(L5+M5)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" ref="Q5:Q55" si="5">L5/(L5+M5+N5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>0</v>
       </c>
@@ -541,8 +746,32 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:7">
+      <c r="K6" s="3">
+        <v>3</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1</v>
       </c>
@@ -564,8 +793,32 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="8" spans="2:7">
+      <c r="K7" s="3">
+        <v>4</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>2</v>
+      </c>
+      <c r="N7" s="3">
+        <v>2</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>0</v>
       </c>
@@ -587,8 +840,32 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:7">
+      <c r="K8" s="3">
+        <v>5</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q8" s="3">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1</v>
       </c>
@@ -610,8 +887,32 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:7">
+      <c r="K9" s="3">
+        <v>6</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3">
+        <v>2</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1</v>
       </c>
@@ -633,8 +934,32 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="11" spans="2:7">
+      <c r="K10" s="3">
+        <v>7</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>1</v>
       </c>
@@ -656,8 +981,32 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="12" spans="2:7">
+      <c r="K11" s="3">
+        <v>8</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q11" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>0</v>
       </c>
@@ -679,8 +1028,32 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:7">
+      <c r="K12" s="3">
+        <v>9</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3">
+        <v>2</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q12" s="3">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>1</v>
       </c>
@@ -702,8 +1075,32 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="14" spans="2:7">
+      <c r="K13" s="3">
+        <v>10</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>2</v>
+      </c>
+      <c r="N13" s="3">
+        <v>2</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>1</v>
       </c>
@@ -725,8 +1122,32 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="15" spans="2:7">
+      <c r="K14" s="3">
+        <v>11</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q14" s="3">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>1</v>
       </c>
@@ -748,8 +1169,32 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="16" spans="2:7">
+      <c r="K15" s="3">
+        <v>12</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>2</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="3">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>1</v>
       </c>
@@ -771,8 +1216,32 @@
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="17" spans="2:7">
+      <c r="K16" s="3">
+        <v>13</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
+      <c r="O16" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>3</v>
       </c>
@@ -794,8 +1263,32 @@
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="18" spans="2:7">
+      <c r="K17" s="3">
+        <v>14</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q17" s="3">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>1</v>
       </c>
@@ -817,8 +1310,32 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="19" spans="2:7">
+      <c r="K18" s="3">
+        <v>15</v>
+      </c>
+      <c r="L18" s="3">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
+        <v>2</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P18" s="3">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="Q18" s="3">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>0</v>
       </c>
@@ -839,8 +1356,32 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:7">
+      <c r="K19" s="3">
+        <v>16</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1</v>
+      </c>
+      <c r="N19" s="3">
+        <v>1</v>
+      </c>
+      <c r="O19" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q19" s="3">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>1</v>
       </c>
@@ -862,8 +1403,31 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="21" spans="2:7">
+      <c r="K20" s="3">
+        <v>17</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>2</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>0</v>
       </c>
@@ -885,8 +1449,32 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:7">
+      <c r="K21" s="3">
+        <v>18</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" ref="O21:O54" si="6">L21/(L21+N21)</f>
+        <v>0.5</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q21" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>0</v>
       </c>
@@ -908,8 +1496,32 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:7">
+      <c r="K22" s="3">
+        <v>19</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>1</v>
       </c>
@@ -931,8 +1543,32 @@
         <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="24" spans="2:7">
+      <c r="K23" s="3">
+        <v>20</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>4</v>
+      </c>
+      <c r="N23" s="3">
+        <v>1</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>0</v>
       </c>
@@ -954,8 +1590,32 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:7">
+      <c r="K24" s="3">
+        <v>21</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+      <c r="M24" s="3">
+        <v>4</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="P24" s="3">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="Q24" s="3">
+        <f t="shared" si="5"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>1</v>
       </c>
@@ -977,8 +1637,32 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="26" spans="2:7">
+      <c r="K25" s="3">
+        <v>22</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>2</v>
+      </c>
+      <c r="N25" s="3">
+        <v>2</v>
+      </c>
+      <c r="O25" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>0</v>
       </c>
@@ -1000,8 +1684,32 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:7">
+      <c r="K26" s="3">
+        <v>23</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1</v>
+      </c>
+      <c r="M26" s="3">
+        <v>1</v>
+      </c>
+      <c r="N26" s="3">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="P26" s="3">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q26" s="3">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>0</v>
       </c>
@@ -1023,8 +1731,32 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:7">
+      <c r="K27" s="3">
+        <v>24</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3">
+        <v>2</v>
+      </c>
+      <c r="O27" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>2</v>
       </c>
@@ -1046,8 +1778,32 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="29" spans="2:7">
+      <c r="K28" s="3">
+        <v>25</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>2</v>
+      </c>
+      <c r="N28" s="3">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>1</v>
       </c>
@@ -1069,8 +1825,32 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="30" spans="2:7">
+      <c r="K29" s="3">
+        <v>26</v>
+      </c>
+      <c r="L29" s="3">
+        <v>2</v>
+      </c>
+      <c r="M29" s="3">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3">
+        <v>1</v>
+      </c>
+      <c r="O29" s="3">
+        <f t="shared" si="6"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P29" s="3">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="Q29" s="3">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>0</v>
       </c>
@@ -1091,8 +1871,32 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:7">
+      <c r="K30" s="3">
+        <v>27</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>1</v>
+      </c>
+      <c r="O30" s="3">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="P30" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q30" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>1</v>
       </c>
@@ -1114,8 +1918,31 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="32" spans="2:7">
+      <c r="K31" s="3">
+        <v>28</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>2</v>
+      </c>
+      <c r="O31" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>0</v>
       </c>
@@ -1137,8 +1964,32 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:7">
+      <c r="K32" s="3">
+        <v>29</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+      <c r="M32" s="3">
+        <v>1</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P32" s="3">
+        <f t="shared" ref="P32:P55" si="7">L32/(L32+M32)</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q32" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>0</v>
       </c>
@@ -1160,8 +2011,32 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:7">
+      <c r="K33" s="3">
+        <v>30</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>1</v>
+      </c>
+      <c r="N33" s="3">
+        <v>2</v>
+      </c>
+      <c r="O33" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>2</v>
       </c>
@@ -1183,8 +2058,32 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:7">
+      <c r="K34" s="3">
+        <v>31</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>1</v>
+      </c>
+      <c r="N34" s="3">
+        <v>3</v>
+      </c>
+      <c r="O34" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>0</v>
       </c>
@@ -1205,8 +2104,32 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:7">
+      <c r="K35" s="3">
+        <v>32</v>
+      </c>
+      <c r="L35" s="3">
+        <v>2</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P35" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q35" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>0</v>
       </c>
@@ -1227,8 +2150,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:7">
+      <c r="K36" s="3">
+        <v>33</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0</v>
+      </c>
+      <c r="M36" s="3">
+        <v>3</v>
+      </c>
+      <c r="N36" s="3">
+        <v>0</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0</v>
+      </c>
+      <c r="P36" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>1</v>
       </c>
@@ -1250,8 +2196,31 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="2:7">
+      <c r="K37" s="3">
+        <v>34</v>
+      </c>
+      <c r="L37" s="3">
+        <v>0</v>
+      </c>
+      <c r="M37" s="3">
+        <v>1</v>
+      </c>
+      <c r="N37" s="3">
+        <v>0</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0</v>
+      </c>
+      <c r="P37" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>0</v>
       </c>
@@ -1272,8 +2241,32 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:7">
+      <c r="K38" s="3">
+        <v>35</v>
+      </c>
+      <c r="L38" s="3">
+        <v>1</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0</v>
+      </c>
+      <c r="O38" s="3">
+        <f t="shared" ref="O38:O54" si="8">L38/(L38+N38)</f>
+        <v>1</v>
+      </c>
+      <c r="P38" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q38" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>1</v>
       </c>
@@ -1295,8 +2288,31 @@
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="40" spans="2:7">
+      <c r="K39" s="3">
+        <v>36</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0</v>
+      </c>
+      <c r="M39" s="3">
+        <v>2</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0</v>
+      </c>
+      <c r="P39" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>0</v>
       </c>
@@ -1317,8 +2333,32 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:7">
+      <c r="K40" s="3">
+        <v>37</v>
+      </c>
+      <c r="L40" s="3">
+        <v>1</v>
+      </c>
+      <c r="M40" s="3">
+        <v>1</v>
+      </c>
+      <c r="N40" s="3">
+        <v>2</v>
+      </c>
+      <c r="O40" s="3">
+        <f t="shared" ref="O40:O54" si="9">L40/(L40+N40)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P40" s="3">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q40" s="3">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>0</v>
       </c>
@@ -1339,8 +2379,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:7">
+      <c r="K41" s="3">
+        <v>38</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>2</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>1</v>
       </c>
@@ -1362,8 +2425,31 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="43" spans="2:7">
+      <c r="K42" s="3">
+        <v>39</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>1</v>
       </c>
@@ -1385,8 +2471,32 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="44" spans="2:7">
+      <c r="K43" s="3">
+        <v>40</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1</v>
+      </c>
+      <c r="M43" s="3">
+        <v>1</v>
+      </c>
+      <c r="N43" s="3">
+        <v>1</v>
+      </c>
+      <c r="O43" s="3">
+        <f t="shared" ref="O43:O54" si="10">L43/(L43+N43)</f>
+        <v>0.5</v>
+      </c>
+      <c r="P43" s="3">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q43" s="3">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>2</v>
       </c>
@@ -1408,8 +2518,32 @@
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="45" spans="2:7">
+      <c r="K44" s="3">
+        <v>41</v>
+      </c>
+      <c r="L44" s="3">
+        <v>1</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>1</v>
+      </c>
+      <c r="O44" s="3">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="P44" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q44" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>0</v>
       </c>
@@ -1430,8 +2564,32 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:7">
+      <c r="K45" s="3">
+        <v>42</v>
+      </c>
+      <c r="L45" s="3">
+        <v>2</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>1</v>
+      </c>
+      <c r="O45" s="3">
+        <f t="shared" si="10"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P45" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q45" s="3">
+        <f t="shared" si="5"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>1</v>
       </c>
@@ -1453,8 +2611,31 @@
         <f t="shared" si="2"/>
         <v>0.1111111111111111</v>
       </c>
-    </row>
-    <row r="47" spans="2:7">
+      <c r="K46" s="3">
+        <v>43</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>1</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>1</v>
       </c>
@@ -1476,8 +2657,32 @@
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="48" spans="2:7">
+      <c r="K47" s="3">
+        <v>44</v>
+      </c>
+      <c r="L47" s="3">
+        <v>1</v>
+      </c>
+      <c r="M47" s="3">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3">
+        <f t="shared" ref="O47:O54" si="11">L47/(L47+N47)</f>
+        <v>0.25</v>
+      </c>
+      <c r="P47" s="3">
+        <f t="shared" si="7"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q47" s="3">
+        <f t="shared" si="5"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>1</v>
       </c>
@@ -1499,8 +2704,32 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="49" spans="2:7">
+      <c r="K48" s="3">
+        <v>45</v>
+      </c>
+      <c r="L48" s="3">
+        <v>1</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3">
+        <f t="shared" si="11"/>
+        <v>0.25</v>
+      </c>
+      <c r="P48" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q48" s="3">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>1</v>
       </c>
@@ -1522,8 +2751,32 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="50" spans="2:7">
+      <c r="K49" s="3">
+        <v>46</v>
+      </c>
+      <c r="L49" s="3">
+        <v>1</v>
+      </c>
+      <c r="M49" s="3">
+        <v>1</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="P49" s="3">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q49" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>0</v>
       </c>
@@ -1544,8 +2797,32 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:7">
+      <c r="K50" s="3">
+        <v>47</v>
+      </c>
+      <c r="L50" s="3">
+        <v>1</v>
+      </c>
+      <c r="M50" s="3">
+        <v>1</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="P50" s="3">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q50" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>1</v>
       </c>
@@ -1567,8 +2844,31 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="52" spans="2:7">
+      <c r="K51" s="3">
+        <v>48</v>
+      </c>
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>1</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>0</v>
       </c>
@@ -1590,8 +2890,32 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:7">
+      <c r="K52" s="3">
+        <v>49</v>
+      </c>
+      <c r="L52" s="3">
+        <v>1</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>2</v>
+      </c>
+      <c r="O52" s="3">
+        <f t="shared" ref="O52:O54" si="12">L52/(L52+N52)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P52" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q52" s="3">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>0</v>
       </c>
@@ -1613,1243 +2937,2618 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:7">
+      <c r="K53" s="3">
+        <v>50</v>
+      </c>
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>1</v>
+      </c>
+      <c r="N53" s="3">
+        <v>1</v>
+      </c>
+      <c r="O53" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
       <c r="E54">
         <f>AVERAGE(E3:E53)</f>
         <v>0.36437908496732024</v>
       </c>
       <c r="F54">
-        <f t="shared" ref="F54:G54" si="3">AVERAGE(F3:F53)</f>
+        <f t="shared" ref="F54:G54" si="13">AVERAGE(F3:F53)</f>
         <v>0.39117647058823529</v>
       </c>
       <c r="G54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0.25577342047930285</v>
       </c>
+      <c r="K54" s="5">
+        <v>51</v>
+      </c>
+      <c r="L54" s="5">
+        <v>0</v>
+      </c>
+      <c r="M54" s="5">
+        <v>1</v>
+      </c>
+      <c r="N54" s="5">
+        <v>2</v>
+      </c>
+      <c r="O54" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="K55" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L55" s="7">
+        <f>SUM(L4:L54)</f>
+        <v>35</v>
+      </c>
+      <c r="M55" s="7">
+        <f>SUM(M4:M54)</f>
+        <v>72</v>
+      </c>
+      <c r="N55" s="7">
+        <f>SUM(N4:N54)</f>
+        <v>53</v>
+      </c>
+      <c r="O55" s="6">
+        <f>L55/(L55+N55)</f>
+        <v>0.39772727272727271</v>
+      </c>
+      <c r="P55" s="7">
+        <f>L55/(L55+M55)</f>
+        <v>0.32710280373831774</v>
+      </c>
+      <c r="Q55" s="7">
+        <f>L55/(L55+M55+N55)</f>
+        <v>0.21875</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K2:Q2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD57501-39D2-4E71-AB9C-0FC2F6BE6F43}">
-  <dimension ref="C3:I55"/>
+  <dimension ref="C3:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView topLeftCell="C30" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:R56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="20.21875" customWidth="1"/>
+    <col min="14" max="14" width="22.109375" customWidth="1"/>
+    <col min="15" max="15" width="21.33203125" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13.77734375" customWidth="1"/>
+    <col min="18" max="18" width="19.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="3:9">
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
+    <row r="3" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="3:9">
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="L3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="3:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <f>C4/(C4+E4)</f>
         <v>0.5</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <f>C4/(C4+D4)</f>
         <v>1</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <f>C4/(C4+D4+E4)</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="3:9">
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="L4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
         <f t="shared" ref="F5:F54" si="0">C5/(C5+E5)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <f t="shared" ref="G5:G54" si="1">C5/(C5+D5)</f>
         <v>1</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <f t="shared" ref="H5:H54" si="2">C5/(C5+D5+E5)</f>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="6" spans="3:9">
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9">
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9">
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="0"/>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="9">
+        <f>M5/(M5+O5)</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="9">
+        <f>M5/(M5+N5)</f>
+        <v>1</v>
+      </c>
+      <c r="R5" s="9">
+        <f>M5/(M5+N5+O5)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>2</v>
+      </c>
+      <c r="P6" s="9">
+        <f t="shared" ref="P6:P55" si="3">M6/(M6+O6)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G8" s="1">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="Q6" s="9">
+        <f t="shared" ref="Q6:Q55" si="4">M6/(M6+N6)</f>
+        <v>1</v>
+      </c>
+      <c r="R6" s="9">
+        <f t="shared" ref="R6:R55" si="5">M6/(M6+N6+O6)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="1">
+        <v>3</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>2</v>
+      </c>
+      <c r="P7" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="9" spans="3:9">
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="L8" s="1">
+        <v>4</v>
+      </c>
+      <c r="M8" s="1">
+        <v>2</v>
+      </c>
+      <c r="N8" s="1">
+        <v>2</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="9">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="R8" s="9">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="3:9">
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="L9" s="1">
+        <v>5</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>2</v>
+      </c>
+      <c r="P9" s="9">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q9" s="9">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="R9" s="9">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="3:9">
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="0"/>
+      <c r="L10" s="1">
+        <v>6</v>
+      </c>
+      <c r="M10" s="1">
+        <v>2</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="9">
+        <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G11" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" si="2"/>
+      <c r="R10" s="9">
+        <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="3:9">
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="H12" s="1">
-        <f t="shared" si="2"/>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L11" s="1">
+        <v>7</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>2</v>
+      </c>
+      <c r="P11" s="9">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q11" s="9">
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R11" s="9">
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="3:9">
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9">
-      <c r="C14" s="1">
+    <row r="12" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="L12" s="1">
+        <v>8</v>
+      </c>
+      <c r="M12" s="1">
+        <v>2</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="9">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q12" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R12" s="9">
+        <f t="shared" si="5"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="1">
+        <v>9</v>
+      </c>
+      <c r="M13" s="1">
+        <v>2</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>2</v>
+      </c>
+      <c r="P13" s="9">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q13" s="9">
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R13" s="9">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C14">
         <v>3</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>5</v>
       </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
         <f t="shared" si="1"/>
         <v>0.375</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="15" spans="3:9">
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="L14" s="1">
+        <v>10</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="9">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q14" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R14" s="9">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
         <v>4</v>
       </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15">
         <f t="shared" si="2"/>
         <v>0.2857142857142857</v>
       </c>
-    </row>
-    <row r="16" spans="3:9">
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8">
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8">
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="1"/>
+      <c r="L15" s="1">
+        <v>11</v>
+      </c>
+      <c r="M15" s="1">
+        <v>3</v>
+      </c>
+      <c r="N15" s="1">
+        <v>5</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="9">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="Q15" s="9">
+        <f t="shared" si="4"/>
+        <v>0.375</v>
+      </c>
+      <c r="R15" s="9">
+        <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H18" s="1">
-        <f t="shared" si="2"/>
+    </row>
+    <row r="16" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>12</v>
+      </c>
+      <c r="M16" s="1">
+        <v>2</v>
+      </c>
+      <c r="N16" s="1">
+        <v>4</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="9">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q16" s="9">
+        <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="19" spans="3:8">
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="R16" s="9">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>13</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q17" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R17" s="9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L18" s="1">
+        <v>14</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>2</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
+      <c r="P18" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>7</v>
       </c>
-      <c r="F19" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8">
-      <c r="C20" s="1">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>15</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1">
+        <v>2</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="9">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R19" s="9">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C20">
         <v>3</v>
       </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
         <f>C20/(C20+E20)</f>
         <v>0.75</v>
       </c>
-      <c r="G20" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H20" s="1">
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="21" spans="3:8">
-      <c r="C21" s="1">
+      <c r="L20" s="1">
+        <v>16</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1">
+        <v>7</v>
+      </c>
+      <c r="P20" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C21">
         <v>3</v>
       </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21">
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="22" spans="3:8">
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="L21" s="1">
+        <v>17</v>
+      </c>
+      <c r="M21" s="1">
         <v>3</v>
       </c>
-      <c r="F22" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8">
-      <c r="C23" s="1">
-        <v>2</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1</v>
+      </c>
+      <c r="P21" s="9">
+        <f>M21/(M21+O21)</f>
+        <v>0.75</v>
+      </c>
+      <c r="Q21" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R21" s="9">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
         <v>3</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>18</v>
+      </c>
+      <c r="M22" s="1">
+        <v>3</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1</v>
+      </c>
+      <c r="P22" s="9">
+        <f t="shared" ref="P22:P55" si="6">M22/(M22+O22)</f>
+        <v>0.75</v>
+      </c>
+      <c r="Q22" s="9">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="R22" s="9">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="G23" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H23" s="1">
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="24" spans="3:8">
-      <c r="C24" s="1">
-        <v>2</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>2</v>
-      </c>
-      <c r="F24" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H24" s="1">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8">
-      <c r="C25" s="1">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2</v>
-      </c>
-      <c r="F25" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="H25" s="1">
+      <c r="L23" s="1">
+        <v>19</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1</v>
+      </c>
+      <c r="O23" s="1">
+        <v>3</v>
+      </c>
+      <c r="P23" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="L24" s="1">
+        <v>20</v>
+      </c>
+      <c r="M24" s="1">
+        <v>2</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>3</v>
+      </c>
+      <c r="P24" s="9">
+        <f t="shared" si="6"/>
+        <v>0.4</v>
+      </c>
+      <c r="Q24" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R24" s="9">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="26" spans="3:8">
-      <c r="C26" s="1">
+      <c r="L25" s="1">
+        <v>21</v>
+      </c>
+      <c r="M25" s="1">
+        <v>2</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>2</v>
+      </c>
+      <c r="P25" s="9">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q25" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R25" s="9">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C26">
         <v>3</v>
       </c>
-      <c r="D26" s="1">
-        <v>2</v>
-      </c>
-      <c r="E26" s="1">
-        <v>2</v>
-      </c>
-      <c r="F26" s="1">
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26">
         <f t="shared" si="2"/>
         <v>0.42857142857142855</v>
       </c>
-    </row>
-    <row r="27" spans="3:8">
-      <c r="C27" s="1">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="L26" s="1">
+        <v>22</v>
+      </c>
+      <c r="M26" s="1">
+        <v>2</v>
+      </c>
+      <c r="N26" s="1">
+        <v>2</v>
+      </c>
+      <c r="O26" s="1">
+        <v>2</v>
+      </c>
+      <c r="P26" s="9">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q26" s="9">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="R26" s="9">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
         <v>3</v>
       </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G27" s="1">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="28" spans="3:8">
-      <c r="C28" s="1">
-        <v>2</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="L27" s="1">
+        <v>23</v>
+      </c>
+      <c r="M27" s="1">
+        <v>3</v>
+      </c>
+      <c r="N27" s="1">
+        <v>2</v>
+      </c>
+      <c r="O27" s="1">
+        <v>2</v>
+      </c>
+      <c r="P27" s="9">
+        <f t="shared" si="6"/>
+        <v>0.6</v>
+      </c>
+      <c r="Q27" s="9">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="R27" s="9">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
         <v>5</v>
       </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1">
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28">
         <f t="shared" si="1"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="29" spans="3:8">
-      <c r="C29" s="1">
-        <v>2</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="L28" s="1">
+        <v>24</v>
+      </c>
+      <c r="M28" s="1">
+        <v>2</v>
+      </c>
+      <c r="N28" s="1">
+        <v>3</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q28" s="9">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="R28" s="9">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
         <v>5</v>
       </c>
-      <c r="E29" s="1">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G29" s="1">
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G29">
         <f t="shared" si="1"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29">
         <f t="shared" si="2"/>
         <v>0.2857142857142857</v>
       </c>
-    </row>
-    <row r="30" spans="3:8">
-      <c r="C30" s="1">
-        <v>2</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="L29" s="1">
+        <v>25</v>
+      </c>
+      <c r="M29" s="1">
+        <v>2</v>
+      </c>
+      <c r="N29" s="1">
+        <v>5</v>
+      </c>
+      <c r="O29" s="1">
+        <v>1</v>
+      </c>
+      <c r="P29" s="9">
+        <f t="shared" si="6"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q29" s="9">
+        <f t="shared" si="4"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="R29" s="9">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
         <v>9</v>
       </c>
-      <c r="E30" s="1">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G30" s="1">
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G30">
         <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30">
         <f t="shared" si="2"/>
         <v>0.18181818181818182</v>
       </c>
-    </row>
-    <row r="31" spans="3:8">
-      <c r="C31" s="1">
+      <c r="L30" s="1">
+        <v>26</v>
+      </c>
+      <c r="M30" s="1">
+        <v>2</v>
+      </c>
+      <c r="N30" s="1">
+        <v>5</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q30" s="9">
+        <f t="shared" si="4"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="R30" s="9">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C31">
         <v>4</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>3</v>
       </c>
-      <c r="E31" s="1">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <f t="shared" si="2"/>
         <v>0.5714285714285714</v>
       </c>
-    </row>
-    <row r="32" spans="3:8">
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="G32" s="1">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="H32" s="1">
+      <c r="L31" s="1">
+        <v>27</v>
+      </c>
+      <c r="M31" s="1">
+        <v>2</v>
+      </c>
+      <c r="N31" s="1">
+        <v>9</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+      <c r="P31" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q31" s="9">
+        <f t="shared" si="4"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="R31" s="9">
+        <f t="shared" si="5"/>
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H32">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="33" spans="3:8">
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="L32" s="1">
+        <v>28</v>
+      </c>
+      <c r="M32" s="1">
+        <v>4</v>
+      </c>
+      <c r="N32" s="1">
         <v>3</v>
       </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="G33" s="1">
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
+      <c r="P32" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>0</v>
+      </c>
+      <c r="R32" s="9">
+        <f t="shared" si="5"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="33" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G33">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="34" spans="3:8">
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="G34" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H34" s="1">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8">
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G35" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H35" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8">
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H36" s="1">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8">
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1">
+      <c r="L33" s="1">
+        <v>29</v>
+      </c>
+      <c r="M33" s="1">
+        <v>1</v>
+      </c>
+      <c r="N33" s="1">
+        <v>1</v>
+      </c>
+      <c r="O33" s="1">
+        <v>1</v>
+      </c>
+      <c r="P33" s="9">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q33" s="9">
+        <f t="shared" ref="Q33:Q55" si="7">M33/(M33+N33)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R33" s="9">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="34" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="L34" s="1">
+        <v>30</v>
+      </c>
+      <c r="M34" s="1">
+        <v>1</v>
+      </c>
+      <c r="N34" s="1">
+        <v>3</v>
+      </c>
+      <c r="O34" s="1">
+        <v>1</v>
+      </c>
+      <c r="P34" s="9">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q34" s="9">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="R34" s="9">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L35" s="1">
+        <v>31</v>
+      </c>
+      <c r="M35" s="1">
+        <v>1</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>1</v>
+      </c>
+      <c r="P35" s="9">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q35" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R35" s="9">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="L36" s="1">
+        <v>32</v>
+      </c>
+      <c r="M36" s="1">
+        <v>1</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+      <c r="P36" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q36" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R36" s="9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
         <v>4</v>
       </c>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8">
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0</v>
-      </c>
-      <c r="F38" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G38" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H38" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8">
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H39" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="3:8">
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0</v>
-      </c>
-      <c r="F40" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G40" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H40" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="3:8">
-      <c r="C41" s="1">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="3:8">
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0</v>
-      </c>
-      <c r="G42" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H42" s="1">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="43" spans="3:8">
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1">
-        <v>1</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0</v>
-      </c>
-      <c r="F43" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G43" s="1">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="H43" s="1">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="44" spans="3:8">
-      <c r="C44" s="1">
-        <v>0</v>
-      </c>
-      <c r="D44" s="1">
-        <v>2</v>
-      </c>
-      <c r="E44" s="1">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>33</v>
+      </c>
+      <c r="M37" s="1">
+        <v>1</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>1</v>
+      </c>
+      <c r="P37" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R37" s="9">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L38" s="1">
+        <v>34</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>1</v>
+      </c>
+      <c r="O38" s="1">
+        <v>4</v>
+      </c>
+      <c r="P38" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L39" s="1">
+        <v>35</v>
+      </c>
+      <c r="M39" s="1">
+        <v>1</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0</v>
+      </c>
+      <c r="P39" s="9">
+        <f t="shared" ref="P39:P55" si="8">M39/(M39+O39)</f>
+        <v>1</v>
+      </c>
+      <c r="Q39" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R39" s="9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L40" s="1">
+        <v>36</v>
+      </c>
+      <c r="M40" s="1">
+        <v>1</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+      <c r="P40" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R40" s="9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>37</v>
+      </c>
+      <c r="M41" s="1">
+        <v>1</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0</v>
+      </c>
+      <c r="P41" s="9">
+        <f t="shared" ref="P41:P55" si="9">M41/(M41+O41)</f>
+        <v>1</v>
+      </c>
+      <c r="Q41" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R41" s="9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="L42" s="1">
+        <v>38</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <v>1</v>
+      </c>
+      <c r="O42" s="1">
+        <v>1</v>
+      </c>
+      <c r="P42" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="L43" s="1">
+        <v>39</v>
+      </c>
+      <c r="M43" s="1">
+        <v>1</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
+        <v>1</v>
+      </c>
+      <c r="P43" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R43" s="9">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
         <v>3</v>
       </c>
-      <c r="F44" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="3:8">
-      <c r="C45" s="1">
-        <v>0</v>
-      </c>
-      <c r="D45" s="1">
-        <v>2</v>
-      </c>
-      <c r="E45" s="1">
-        <v>2</v>
-      </c>
-      <c r="F45" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="3:8">
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
-      <c r="D46" s="1">
-        <v>1</v>
-      </c>
-      <c r="E46" s="1">
-        <v>2</v>
-      </c>
-      <c r="F46" s="1">
-        <v>0</v>
-      </c>
-      <c r="G46" s="1">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="H46" s="1">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>40</v>
+      </c>
+      <c r="M44" s="1">
+        <v>1</v>
+      </c>
+      <c r="N44" s="1">
+        <v>1</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0</v>
+      </c>
+      <c r="P44" s="9">
+        <f t="shared" ref="P44:P55" si="10">M44/(M44+O44)</f>
+        <v>1</v>
+      </c>
+      <c r="Q44" s="9">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="R44" s="9">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>41</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1">
+        <v>2</v>
+      </c>
+      <c r="O45" s="1">
+        <v>3</v>
+      </c>
+      <c r="P45" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H46">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="47" spans="3:8">
-      <c r="C47" s="1">
-        <v>2</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0</v>
-      </c>
-      <c r="F47" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G47" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H47" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="3:8">
-      <c r="C48" s="1">
-        <v>2</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0</v>
-      </c>
-      <c r="F48" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G48" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H48" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="3:8">
-      <c r="C49" s="1">
-        <v>1</v>
-      </c>
-      <c r="D49" s="1">
-        <v>0</v>
-      </c>
-      <c r="E49" s="1">
-        <v>0</v>
-      </c>
-      <c r="F49" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G49" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H49" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="3:8">
-      <c r="C50" s="1">
-        <v>2</v>
-      </c>
-      <c r="D50" s="1">
-        <v>0</v>
-      </c>
-      <c r="E50" s="1">
-        <v>1</v>
-      </c>
-      <c r="F50" s="1">
+      <c r="L46" s="1">
+        <v>42</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0</v>
+      </c>
+      <c r="N46" s="1">
+        <v>2</v>
+      </c>
+      <c r="O46" s="1">
+        <v>2</v>
+      </c>
+      <c r="P46" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L47" s="1">
+        <v>43</v>
+      </c>
+      <c r="M47" s="1">
+        <v>1</v>
+      </c>
+      <c r="N47" s="1">
+        <v>1</v>
+      </c>
+      <c r="O47" s="1">
+        <v>2</v>
+      </c>
+      <c r="P47" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="9">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="R47" s="9">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="48" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L48" s="1">
+        <v>44</v>
+      </c>
+      <c r="M48" s="1">
+        <v>2</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
+        <v>0</v>
+      </c>
+      <c r="P48" s="9">
+        <f t="shared" ref="P48:P55" si="11">M48/(M48+O48)</f>
+        <v>1</v>
+      </c>
+      <c r="Q48" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R48" s="9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L49" s="1">
+        <v>45</v>
+      </c>
+      <c r="M49" s="1">
+        <v>2</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
+        <v>0</v>
+      </c>
+      <c r="P49" s="9">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Q49" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R49" s="9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G50" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H50" s="1">
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H50">
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="51" spans="3:8">
-      <c r="C51" s="1">
-        <v>2</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0</v>
-      </c>
-      <c r="E51" s="1">
-        <v>1</v>
-      </c>
-      <c r="F51" s="1">
+      <c r="L50" s="1">
+        <v>46</v>
+      </c>
+      <c r="M50" s="1">
+        <v>1</v>
+      </c>
+      <c r="N50" s="1">
+        <v>0</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0</v>
+      </c>
+      <c r="P50" s="9">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Q50" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R50" s="9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
         <f>C51/(C51+E51)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G51" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H51" s="1">
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H51">
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="52" spans="3:8">
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1">
-        <v>0</v>
-      </c>
-      <c r="E52" s="1">
-        <v>0</v>
-      </c>
-      <c r="F52" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G52" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H52" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="3:8">
-      <c r="C53" s="1">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1">
-        <v>2</v>
-      </c>
-      <c r="E53" s="1">
+      <c r="L51" s="1">
+        <v>47</v>
+      </c>
+      <c r="M51" s="1">
+        <v>2</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0</v>
+      </c>
+      <c r="O51" s="1">
+        <v>1</v>
+      </c>
+      <c r="P51" s="9">
+        <f t="shared" si="11"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q51" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R51" s="9">
+        <f t="shared" si="5"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L52" s="1">
+        <v>48</v>
+      </c>
+      <c r="M52" s="1">
+        <v>2</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0</v>
+      </c>
+      <c r="O52" s="1">
+        <v>1</v>
+      </c>
+      <c r="P52" s="9">
+        <f>M52/(M52+O52)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q52" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R52" s="9">
+        <f t="shared" si="5"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
         <v>5</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53">
         <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
-    </row>
-    <row r="54" spans="3:8">
-      <c r="C54" s="1">
-        <v>1</v>
-      </c>
-      <c r="D54" s="1">
-        <v>0</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1</v>
-      </c>
-      <c r="F54" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="G54" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H54" s="1">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:8">
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1">
+      <c r="L53" s="1">
+        <v>49</v>
+      </c>
+      <c r="M53" s="1">
+        <v>1</v>
+      </c>
+      <c r="N53" s="1">
+        <v>0</v>
+      </c>
+      <c r="O53" s="1">
+        <v>0</v>
+      </c>
+      <c r="P53" s="9">
+        <f t="shared" ref="P53:P55" si="12">M53/(M53+O53)</f>
+        <v>1</v>
+      </c>
+      <c r="Q53" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R53" s="9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="L54" s="1">
+        <v>50</v>
+      </c>
+      <c r="M54" s="1">
+        <v>1</v>
+      </c>
+      <c r="N54" s="1">
+        <v>2</v>
+      </c>
+      <c r="O54" s="1">
+        <v>5</v>
+      </c>
+      <c r="P54" s="9">
+        <f t="shared" si="12"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q54" s="9">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R54" s="9">
+        <f t="shared" si="5"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="F55">
         <f>AVERAGE(F4:F54)</f>
         <v>0.55718954248366015</v>
       </c>
-      <c r="G55" s="1">
-        <f t="shared" ref="G55:H55" si="3">AVERAGE(G4:G54)</f>
+      <c r="G55">
+        <f t="shared" ref="G55:H55" si="13">AVERAGE(G4:G54)</f>
         <v>0.61035777947542658</v>
       </c>
-      <c r="H55" s="1">
-        <f t="shared" si="3"/>
+      <c r="H55">
+        <f t="shared" si="13"/>
         <v>0.46297215856039392</v>
       </c>
+      <c r="L55" s="8">
+        <v>51</v>
+      </c>
+      <c r="M55" s="8">
+        <v>1</v>
+      </c>
+      <c r="N55" s="8">
+        <v>0</v>
+      </c>
+      <c r="O55" s="8">
+        <v>1</v>
+      </c>
+      <c r="P55" s="10">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q55" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R55" s="10">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="L56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M56" s="1">
+        <f>SUM(M5:M55)</f>
+        <v>71</v>
+      </c>
+      <c r="N56" s="1">
+        <f>SUM(N5:N55)</f>
+        <v>66</v>
+      </c>
+      <c r="O56" s="1">
+        <f>SUM(O5:O55)</f>
+        <v>63</v>
+      </c>
+      <c r="P56" s="9">
+        <f t="shared" ref="P56" si="14">M56/(M56+O56)</f>
+        <v>0.52985074626865669</v>
+      </c>
+      <c r="Q56" s="9">
+        <f t="shared" ref="Q56" si="15">M56/(M56+N56)</f>
+        <v>0.51824817518248179</v>
+      </c>
+      <c r="R56" s="9">
+        <f t="shared" ref="R56" si="16">M56/(M56+N56+O56)</f>
+        <v>0.35499999999999998</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L3:R3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5539810F-CC7A-4151-A436-7C40F13961B2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>